--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9863014806502</v>
+        <v>4.288808333333333</v>
       </c>
       <c r="H2">
-        <v>2.9863014806502</v>
+        <v>12.866425</v>
       </c>
       <c r="I2">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="J2">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>29.80228245643859</v>
+        <v>73.62395691841665</v>
       </c>
       <c r="R2">
-        <v>29.80228245643859</v>
+        <v>662.61561226575</v>
       </c>
       <c r="S2">
-        <v>0.004972803223317436</v>
+        <v>0.01116986957986922</v>
       </c>
       <c r="T2">
-        <v>0.004972803223317436</v>
+        <v>0.01116986957986922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9863014806502</v>
+        <v>4.288808333333333</v>
       </c>
       <c r="H3">
-        <v>2.9863014806502</v>
+        <v>12.866425</v>
       </c>
       <c r="I3">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="J3">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>763.4921878509255</v>
+        <v>1099.840473749477</v>
       </c>
       <c r="R3">
-        <v>763.4921878509255</v>
+        <v>9898.564263745298</v>
       </c>
       <c r="S3">
-        <v>0.1273961622997272</v>
+        <v>0.1668624611423213</v>
       </c>
       <c r="T3">
-        <v>0.1273961622997272</v>
+        <v>0.1668624611423213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.9863014806502</v>
+        <v>4.288808333333333</v>
       </c>
       <c r="H4">
-        <v>2.9863014806502</v>
+        <v>12.866425</v>
       </c>
       <c r="I4">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="J4">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>95.8515502793614</v>
+        <v>140.4386957918389</v>
       </c>
       <c r="R4">
-        <v>95.8515502793614</v>
+        <v>1263.94826212655</v>
       </c>
       <c r="S4">
-        <v>0.01599377158061276</v>
+        <v>0.02130667763076138</v>
       </c>
       <c r="T4">
-        <v>0.01599377158061276</v>
+        <v>0.02130667763076138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1036832092458</v>
+        <v>11.10519266666667</v>
       </c>
       <c r="H5">
-        <v>11.1036832092458</v>
+        <v>33.315578</v>
       </c>
       <c r="I5">
-        <v>0.5516431758581022</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="J5">
-        <v>0.5516431758581022</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>110.811016721831</v>
+        <v>190.6376230681133</v>
       </c>
       <c r="R5">
-        <v>110.811016721831</v>
+        <v>1715.73860761302</v>
       </c>
       <c r="S5">
-        <v>0.01848990532650811</v>
+        <v>0.02892261535259096</v>
       </c>
       <c r="T5">
-        <v>0.01848990532650811</v>
+        <v>0.02892261535259096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.1036832092458</v>
+        <v>11.10519266666667</v>
       </c>
       <c r="H6">
-        <v>11.1036832092458</v>
+        <v>33.315578</v>
       </c>
       <c r="I6">
-        <v>0.5516431758581022</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="J6">
-        <v>0.5516431758581022</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>2838.821010390705</v>
+        <v>2847.863418996161</v>
       </c>
       <c r="R6">
-        <v>2838.821010390705</v>
+        <v>25630.77077096545</v>
       </c>
       <c r="S6">
-        <v>0.4736851377583765</v>
+        <v>0.4320640224039681</v>
       </c>
       <c r="T6">
-        <v>0.4736851377583765</v>
+        <v>0.4320640224039681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1036832092458</v>
+        <v>11.10519266666667</v>
       </c>
       <c r="H7">
-        <v>11.1036832092458</v>
+        <v>33.315578</v>
       </c>
       <c r="I7">
-        <v>0.5516431758581022</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="J7">
-        <v>0.5516431758581022</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>356.3957813078525</v>
+        <v>363.6438500882164</v>
       </c>
       <c r="R7">
-        <v>356.3957813078525</v>
+        <v>3272.794650793948</v>
       </c>
       <c r="S7">
-        <v>0.05946813277321764</v>
+        <v>0.05517028083002747</v>
       </c>
       <c r="T7">
-        <v>0.05946813277321764</v>
+        <v>0.05517028083002747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.0383948409005</v>
+        <v>6.121147333333333</v>
       </c>
       <c r="H8">
-        <v>6.0383948409005</v>
+        <v>18.363442</v>
       </c>
       <c r="I8">
-        <v>0.2999940870382403</v>
+        <v>0.2845040730604615</v>
       </c>
       <c r="J8">
-        <v>0.2999940870382403</v>
+        <v>0.2845040730604615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>60.26114570081399</v>
+        <v>105.0788593320867</v>
       </c>
       <c r="R8">
-        <v>60.26114570081399</v>
+        <v>945.7097339887799</v>
       </c>
       <c r="S8">
-        <v>0.01005516339293229</v>
+        <v>0.01594205478036772</v>
       </c>
       <c r="T8">
-        <v>0.01005516339293229</v>
+        <v>0.01594205478036772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.0383948409005</v>
+        <v>6.121147333333333</v>
       </c>
       <c r="H9">
-        <v>6.0383948409005</v>
+        <v>18.363442</v>
       </c>
       <c r="I9">
-        <v>0.2999940870382403</v>
+        <v>0.2845040730604615</v>
       </c>
       <c r="J9">
-        <v>0.2999940870382403</v>
+        <v>0.2845040730604615</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>1543.805043817304</v>
+        <v>1569.733375739652</v>
       </c>
       <c r="R9">
-        <v>1543.805043817304</v>
+        <v>14127.60038165687</v>
       </c>
       <c r="S9">
-        <v>0.2575990181050657</v>
+        <v>0.2381523326925911</v>
       </c>
       <c r="T9">
-        <v>0.2575990181050657</v>
+        <v>0.2381523326925911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.0383948409005</v>
+        <v>6.121147333333333</v>
       </c>
       <c r="H10">
-        <v>6.0383948409005</v>
+        <v>18.363442</v>
       </c>
       <c r="I10">
-        <v>0.2999940870382403</v>
+        <v>0.2845040730604615</v>
       </c>
       <c r="J10">
-        <v>0.2999940870382403</v>
+        <v>0.2845040730604615</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>193.8148276218891</v>
+        <v>200.4393485159302</v>
       </c>
       <c r="R10">
-        <v>193.8148276218891</v>
+        <v>1803.954136643372</v>
       </c>
       <c r="S10">
-        <v>0.03233990554024227</v>
+        <v>0.03040968558750267</v>
       </c>
       <c r="T10">
-        <v>0.03233990554024227</v>
+        <v>0.03040968558750267</v>
       </c>
     </row>
   </sheetData>
